--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H2">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N2">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q2">
-        <v>1.871135649116556</v>
+        <v>0.2835522592673334</v>
       </c>
       <c r="R2">
-        <v>16.840220842049</v>
+        <v>2.551970333406</v>
       </c>
       <c r="S2">
-        <v>0.03830134086204801</v>
+        <v>0.01062693382426758</v>
       </c>
       <c r="T2">
-        <v>0.038301340862048</v>
+        <v>0.01062693382426758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H3">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q3">
-        <v>1.323647729169222</v>
+        <v>0.5866682617206668</v>
       </c>
       <c r="R3">
-        <v>11.912829562523</v>
+        <v>5.280014355486001</v>
       </c>
       <c r="S3">
-        <v>0.02709449893711483</v>
+        <v>0.02198707501119129</v>
       </c>
       <c r="T3">
-        <v>0.02709449893711482</v>
+        <v>0.02198707501119129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H4">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N4">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q4">
-        <v>1.063479483165</v>
+        <v>0.4702155027006667</v>
       </c>
       <c r="R4">
-        <v>9.571315348485001</v>
+        <v>4.231939524306</v>
       </c>
       <c r="S4">
-        <v>0.02176896699270786</v>
+        <v>0.01762267401168392</v>
       </c>
       <c r="T4">
-        <v>0.02176896699270786</v>
+        <v>0.01762267401168393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I5">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J5">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N5">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q5">
-        <v>10.89540933009467</v>
+        <v>3.725213900609334</v>
       </c>
       <c r="R5">
-        <v>98.05868397085202</v>
+        <v>33.526925105484</v>
       </c>
       <c r="S5">
-        <v>0.223024336466746</v>
+        <v>0.1396130706392781</v>
       </c>
       <c r="T5">
-        <v>0.223024336466746</v>
+        <v>0.139613070639278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I6">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J6">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q6">
         <v>7.707449657622669</v>
@@ -818,10 +818,10 @@
         <v>69.36704691860402</v>
       </c>
       <c r="S6">
-        <v>0.1577681749867041</v>
+        <v>0.2888587721962332</v>
       </c>
       <c r="T6">
-        <v>0.1577681749867041</v>
+        <v>0.2888587721962332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I7">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J7">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N7">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q7">
-        <v>6.192519654420001</v>
+        <v>6.177532605342668</v>
       </c>
       <c r="R7">
-        <v>55.73267688978001</v>
+        <v>55.597793448084</v>
       </c>
       <c r="S7">
-        <v>0.1267582102830738</v>
+        <v>0.2315207445846467</v>
       </c>
       <c r="T7">
-        <v>0.1267582102830738</v>
+        <v>0.2315207445846467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H8">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N8">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q8">
-        <v>8.700096409490445</v>
+        <v>1.635560718355111</v>
       </c>
       <c r="R8">
-        <v>78.300867685414</v>
+        <v>14.720046465196</v>
       </c>
       <c r="S8">
-        <v>0.1780872264765538</v>
+        <v>0.06129732686469089</v>
       </c>
       <c r="T8">
-        <v>0.1780872264765538</v>
+        <v>0.06129732686469089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H9">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q9">
-        <v>6.154477822819779</v>
+        <v>3.38396726605289</v>
       </c>
       <c r="R9">
-        <v>55.39030040537801</v>
+        <v>30.45570539447601</v>
       </c>
       <c r="S9">
-        <v>0.1259795103743715</v>
+        <v>0.1268238746986229</v>
       </c>
       <c r="T9">
-        <v>0.1259795103743714</v>
+        <v>0.1268238746986229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H10">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N10">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q10">
-        <v>4.944790634189999</v>
+        <v>2.712254902732889</v>
       </c>
       <c r="R10">
-        <v>44.50311570771</v>
+        <v>24.410294124596</v>
       </c>
       <c r="S10">
-        <v>0.1012177346206802</v>
+        <v>0.1016495281693855</v>
       </c>
       <c r="T10">
-        <v>0.1012177346206802</v>
+        <v>0.1016495281693855</v>
       </c>
     </row>
   </sheetData>
